--- a/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Comparaciones_Entre_Proporciones/dm_proporciones_resumen_LSPM_Lineal_Estacionario_ARMA.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Comparaciones_Entre_Proporciones/dm_proporciones_resumen_LSPM_Lineal_Estacionario_ARMA.xlsx
@@ -423,7 +423,7 @@
         <v>4</v>
       </c>
       <c r="E2">
-        <v>0.7387023721458145</v>
+        <v>0.762716592135144</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -440,7 +440,7 @@
         <v>4</v>
       </c>
       <c r="E3">
-        <v>0.7147028466257251</v>
+        <v>0.7590104790790922</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -457,7 +457,7 @@
         <v>4</v>
       </c>
       <c r="E4">
-        <v>0.7162379957586388</v>
+        <v>0.7588713370947083</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -474,7 +474,7 @@
         <v>4</v>
       </c>
       <c r="E5">
-        <v>0.7196613918393555</v>
+        <v>0.7625433183372602</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -491,7 +491,7 @@
         <v>4</v>
       </c>
       <c r="E6">
-        <v>0.7408776262190067</v>
+        <v>0.7720738198247329</v>
       </c>
     </row>
   </sheetData>
